--- a/mini/python_playwright/input/companies.xlsx
+++ b/mini/python_playwright/input/companies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Earth\Current_project\freecoder\mini\python_playwright\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C3E513-9106-44FC-AB1E-B9D96E1F2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809F3391-C5A4-4699-9D5F-2D7F7D97BD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB00A6EB-2D67-4250-9F3C-E0BD6CED23B5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>company</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,25 @@
   </si>
   <si>
     <t>宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stock_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000009</t>
+  </si>
+  <si>
+    <t>000017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深中华</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,8 +110,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,27 +431,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491102ED-519C-4DBE-9586-E68160F0E830}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
